--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="H2">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="I2">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="J2">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="N2">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="O2">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="P2">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="Q2">
-        <v>0.2308969076337778</v>
+        <v>0.1277979084694445</v>
       </c>
       <c r="R2">
-        <v>2.078072168704001</v>
+        <v>1.150181176225</v>
       </c>
       <c r="S2">
-        <v>2.043295971295724E-06</v>
+        <v>2.284371827361538E-06</v>
       </c>
       <c r="T2">
-        <v>2.043295971295723E-06</v>
+        <v>2.284371827361537E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="H3">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="I3">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="J3">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.467056</v>
       </c>
       <c r="O3">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="P3">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="Q3">
-        <v>0.07480950121244447</v>
+        <v>0.05565569033777779</v>
       </c>
       <c r="R3">
-        <v>0.6732855109120001</v>
+        <v>0.50090121304</v>
       </c>
       <c r="S3">
-        <v>6.620181881538061E-07</v>
+        <v>9.948385897909679E-07</v>
       </c>
       <c r="T3">
-        <v>6.620181881538059E-07</v>
+        <v>9.948385897909677E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="H4">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="I4">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="J4">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="N4">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="O4">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="P4">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="Q4">
-        <v>89.87346589929246</v>
+        <v>36.76700264777833</v>
       </c>
       <c r="R4">
-        <v>808.8611930936321</v>
+        <v>330.903023830005</v>
       </c>
       <c r="S4">
-        <v>0.0007953250334979521</v>
+        <v>0.0006572056306007009</v>
       </c>
       <c r="T4">
-        <v>0.0007953250334979519</v>
+        <v>0.0006572056306007008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="H5">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="I5">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="J5">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="N5">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="O5">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="P5">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="Q5">
-        <v>0.07368573134222223</v>
+        <v>0.03506031080333333</v>
       </c>
       <c r="R5">
-        <v>0.66317158208</v>
+        <v>0.31554279723</v>
       </c>
       <c r="S5">
-        <v>6.520735142644071E-07</v>
+        <v>6.266987247042714E-07</v>
       </c>
       <c r="T5">
-        <v>6.520735142644069E-07</v>
+        <v>6.266987247042712E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="H6">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="I6">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="J6">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="N6">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="O6">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="P6">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="Q6">
-        <v>71.27687568625245</v>
+        <v>47.56968877606167</v>
       </c>
       <c r="R6">
-        <v>641.491881176272</v>
+        <v>428.127198984555</v>
       </c>
       <c r="S6">
-        <v>0.0006307566196047234</v>
+        <v>0.0008503023107171826</v>
       </c>
       <c r="T6">
-        <v>0.0006307566196047232</v>
+        <v>0.0008503023107171826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.467056</v>
       </c>
       <c r="I7">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="J7">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="N7">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="O7">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="P7">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="Q7">
-        <v>0.07480950121244447</v>
+        <v>0.05565569033777779</v>
       </c>
       <c r="R7">
-        <v>0.6732855109120001</v>
+        <v>0.50090121304</v>
       </c>
       <c r="S7">
-        <v>6.620181881538061E-07</v>
+        <v>9.948385897909679E-07</v>
       </c>
       <c r="T7">
-        <v>6.620181881538059E-07</v>
+        <v>9.948385897909677E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.467056</v>
       </c>
       <c r="I8">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="J8">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.467056</v>
       </c>
       <c r="O8">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="P8">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="Q8">
         <v>0.02423792301511112</v>
@@ -945,10 +945,10 @@
         <v>0.218141307136</v>
       </c>
       <c r="S8">
-        <v>2.144907480870368E-07</v>
+        <v>4.332498798500746E-07</v>
       </c>
       <c r="T8">
-        <v>2.144907480870367E-07</v>
+        <v>4.332498798500746E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.467056</v>
       </c>
       <c r="I9">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="J9">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="N9">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="O9">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="P9">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="Q9">
-        <v>29.11857601325512</v>
+        <v>16.01194368922133</v>
       </c>
       <c r="R9">
-        <v>262.067184119296</v>
+        <v>144.107493202992</v>
       </c>
       <c r="S9">
-        <v>0.0002576815327129507</v>
+        <v>0.0002862115155327595</v>
       </c>
       <c r="T9">
-        <v>0.0002576815327129506</v>
+        <v>0.0002862115155327595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,40 +1039,40 @@
         <v>0.467056</v>
       </c>
       <c r="I10">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="J10">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="N10">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="O10">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="P10">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="Q10">
-        <v>0.02387382691555556</v>
+        <v>0.01526868338133333</v>
       </c>
       <c r="R10">
-        <v>0.21486444224</v>
+        <v>0.137418150432</v>
       </c>
       <c r="S10">
-        <v>2.112687209884048E-07</v>
+        <v>2.729258293421959E-07</v>
       </c>
       <c r="T10">
-        <v>2.112687209884047E-07</v>
+        <v>2.729258293421959E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.467056</v>
       </c>
       <c r="I11">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="J11">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="N11">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="O11">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="P11">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="Q11">
-        <v>23.09336912613511</v>
+        <v>20.71648824063467</v>
       </c>
       <c r="R11">
-        <v>207.840322135216</v>
+        <v>186.448394165712</v>
       </c>
       <c r="S11">
-        <v>0.0002043621483832034</v>
+        <v>0.000370304668249616</v>
       </c>
       <c r="T11">
-        <v>0.0002043621483832034</v>
+        <v>0.000370304668249616</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="H12">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="I12">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="J12">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="N12">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="O12">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="P12">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="Q12">
-        <v>89.87346589929246</v>
+        <v>36.76700264777833</v>
       </c>
       <c r="R12">
-        <v>808.8611930936321</v>
+        <v>330.903023830005</v>
       </c>
       <c r="S12">
-        <v>0.0007953250334979521</v>
+        <v>0.0006572056306007009</v>
       </c>
       <c r="T12">
-        <v>0.0007953250334979519</v>
+        <v>0.0006572056306007008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="H13">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="I13">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="J13">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,22 +1243,22 @@
         <v>0.467056</v>
       </c>
       <c r="O13">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="P13">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="Q13">
-        <v>29.11857601325512</v>
+        <v>16.01194368922133</v>
       </c>
       <c r="R13">
-        <v>262.067184119296</v>
+        <v>144.107493202992</v>
       </c>
       <c r="S13">
-        <v>0.0002576815327129507</v>
+        <v>0.0002862115155327595</v>
       </c>
       <c r="T13">
-        <v>0.0002576815327129506</v>
+        <v>0.0002862115155327595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="H14">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="I14">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="J14">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="N14">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="O14">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="P14">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="Q14">
-        <v>34982.0184060779</v>
+        <v>10577.73558183816</v>
       </c>
       <c r="R14">
-        <v>314838.1656547011</v>
+        <v>95199.62023654344</v>
       </c>
       <c r="S14">
-        <v>0.3095694005148956</v>
+        <v>0.1890757168863065</v>
       </c>
       <c r="T14">
-        <v>0.3095694005148956</v>
+        <v>0.1890757168863065</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,46 +1343,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="H15">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="I15">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="J15">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="N15">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="O15">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="P15">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="Q15">
-        <v>28.68116394851555</v>
+        <v>10.086726422806</v>
       </c>
       <c r="R15">
-        <v>258.13047553664</v>
+        <v>90.780537805254</v>
       </c>
       <c r="S15">
-        <v>0.0002538107043036934</v>
+        <v>0.0001802989888216393</v>
       </c>
       <c r="T15">
-        <v>0.0002538107043036933</v>
+        <v>0.0001802989888216393</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="H16">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="I16">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="J16">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="N16">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="O16">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="P16">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="Q16">
-        <v>27743.54980343358</v>
+        <v>13685.62986773467</v>
       </c>
       <c r="R16">
-        <v>249691.9482309022</v>
+        <v>123170.668809612</v>
       </c>
       <c r="S16">
-        <v>0.2455133943704025</v>
+        <v>0.2446289433369362</v>
       </c>
       <c r="T16">
-        <v>0.2455133943704025</v>
+        <v>0.2446289433369362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="H17">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="I17">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="J17">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="N17">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="O17">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="P17">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="Q17">
-        <v>0.07368573134222223</v>
+        <v>0.03506031080333333</v>
       </c>
       <c r="R17">
-        <v>0.66317158208</v>
+        <v>0.31554279723</v>
       </c>
       <c r="S17">
-        <v>6.520735142644071E-07</v>
+        <v>6.266987247042714E-07</v>
       </c>
       <c r="T17">
-        <v>6.520735142644069E-07</v>
+        <v>6.266987247042712E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1523,22 +1523,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="H18">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="I18">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="J18">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,22 +1553,22 @@
         <v>0.467056</v>
       </c>
       <c r="O18">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="P18">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="Q18">
-        <v>0.02387382691555556</v>
+        <v>0.01526868338133333</v>
       </c>
       <c r="R18">
-        <v>0.21486444224</v>
+        <v>0.137418150432</v>
       </c>
       <c r="S18">
-        <v>2.112687209884048E-07</v>
+        <v>2.729258293421959E-07</v>
       </c>
       <c r="T18">
-        <v>2.112687209884047E-07</v>
+        <v>2.729258293421959E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,22 +1585,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="H19">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="I19">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="J19">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="N19">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="O19">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="P19">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="Q19">
-        <v>28.68116394851555</v>
+        <v>10.086726422806</v>
       </c>
       <c r="R19">
-        <v>258.13047553664</v>
+        <v>90.780537805254</v>
       </c>
       <c r="S19">
-        <v>0.0002538107043036934</v>
+        <v>0.0001802989888216393</v>
       </c>
       <c r="T19">
-        <v>0.0002538107043036933</v>
+        <v>0.0001802989888216393</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,52 +1647,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="H20">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="I20">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="J20">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="N20">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="O20">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="P20">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="Q20">
-        <v>0.02351520017777778</v>
+        <v>0.009618509475999999</v>
       </c>
       <c r="R20">
-        <v>0.2116368016</v>
+        <v>0.08656658528399999</v>
       </c>
       <c r="S20">
-        <v>2.080950943859103E-07</v>
+        <v>1.719296687350544E-07</v>
       </c>
       <c r="T20">
-        <v>2.080950943859102E-07</v>
+        <v>1.719296687350543E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,22 +1709,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="H21">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="I21">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="J21">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1733,28 +1733,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="N21">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="O21">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="P21">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="Q21">
-        <v>22.74646623271556</v>
+        <v>13.050354996266</v>
       </c>
       <c r="R21">
-        <v>204.71819609444</v>
+        <v>117.453194966394</v>
       </c>
       <c r="S21">
-        <v>0.0002012922706103956</v>
+        <v>0.0002332734834832194</v>
       </c>
       <c r="T21">
-        <v>0.0002012922706103955</v>
+        <v>0.0002332734834832194</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,16 +1777,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="H22">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="I22">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="J22">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4805173333333334</v>
+        <v>0.3574883333333334</v>
       </c>
       <c r="N22">
-        <v>1.441552</v>
+        <v>1.072465</v>
       </c>
       <c r="O22">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="P22">
-        <v>0.001429439040776389</v>
+        <v>0.00151141385045974</v>
       </c>
       <c r="Q22">
-        <v>71.27687568625245</v>
+        <v>47.56968877606167</v>
       </c>
       <c r="R22">
-        <v>641.491881176272</v>
+        <v>428.127198984555</v>
       </c>
       <c r="S22">
-        <v>0.0006307566196047234</v>
+        <v>0.0008503023107171826</v>
       </c>
       <c r="T22">
-        <v>0.0006307566196047232</v>
+        <v>0.0008503023107171826</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,16 +1839,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="H23">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="I23">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="J23">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,22 +1863,22 @@
         <v>0.467056</v>
       </c>
       <c r="O23">
-        <v>0.0004631314587533833</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="P23">
-        <v>0.0004631314587533832</v>
+        <v>0.0006582171980813587</v>
       </c>
       <c r="Q23">
-        <v>23.09336912613511</v>
+        <v>20.71648824063467</v>
       </c>
       <c r="R23">
-        <v>207.840322135216</v>
+        <v>186.448394165712</v>
       </c>
       <c r="S23">
-        <v>0.0002043621483832034</v>
+        <v>0.000370304668249616</v>
       </c>
       <c r="T23">
-        <v>0.0002043621483832034</v>
+        <v>0.000370304668249616</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="H24">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="I24">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="J24">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,28 +1919,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>187.0348053333333</v>
+        <v>102.848119</v>
       </c>
       <c r="N24">
-        <v>561.104416</v>
+        <v>308.544357</v>
       </c>
       <c r="O24">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="P24">
-        <v>0.5563896121558126</v>
+        <v>0.4348283763581978</v>
       </c>
       <c r="Q24">
-        <v>27743.54980343358</v>
+        <v>13685.62986773467</v>
       </c>
       <c r="R24">
-        <v>249691.9482309022</v>
+        <v>123170.668809612</v>
       </c>
       <c r="S24">
-        <v>0.2455133943704025</v>
+        <v>0.2446289433369362</v>
       </c>
       <c r="T24">
-        <v>0.2455133943704025</v>
+        <v>0.2446289433369362</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,46 +1963,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="H25">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="I25">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="J25">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1533466666666667</v>
+        <v>0.09807399999999999</v>
       </c>
       <c r="N25">
-        <v>0.4600399999999999</v>
+        <v>0.294222</v>
       </c>
       <c r="O25">
-        <v>0.0004561744122437276</v>
+        <v>0.0004146440265276402</v>
       </c>
       <c r="P25">
-        <v>0.0004561744122437275</v>
+        <v>0.0004146440265276401</v>
       </c>
       <c r="Q25">
-        <v>22.74646623271556</v>
+        <v>13.050354996266</v>
       </c>
       <c r="R25">
-        <v>204.71819609444</v>
+        <v>117.453194966394</v>
       </c>
       <c r="S25">
-        <v>0.0002012922706103956</v>
+        <v>0.0002332734834832194</v>
       </c>
       <c r="T25">
-        <v>0.0002012922706103955</v>
+        <v>0.0002332734834832194</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,16 +2025,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="H26">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="I26">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="J26">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2043,28 +2043,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>148.3336203333333</v>
+        <v>133.066409</v>
       </c>
       <c r="N26">
-        <v>445.000861</v>
+        <v>399.199227</v>
       </c>
       <c r="O26">
-        <v>0.441261642932414</v>
+        <v>0.5625873485667334</v>
       </c>
       <c r="P26">
-        <v>0.4412616429324139</v>
+        <v>0.5625873485667335</v>
       </c>
       <c r="Q26">
-        <v>22002.86292119348</v>
+        <v>17706.66920415528</v>
       </c>
       <c r="R26">
-        <v>198025.7662907413</v>
+        <v>159360.0228373975</v>
       </c>
       <c r="S26">
-        <v>0.1947118375234132</v>
+        <v>0.3165045247673472</v>
       </c>
       <c r="T26">
-        <v>0.1947118375234132</v>
+        <v>0.3165045247673474</v>
       </c>
     </row>
   </sheetData>
